--- a/docs/네모내모 기능정리_참고자료_200507.xlsx
+++ b/docs/네모내모 기능정리_참고자료_200507.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyhgo\Desktop\네모네모\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\team-project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9507DBF8-D9D1-4298-AC98-A9BB77B1E3E8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EC5EE0-AC41-457B-BF75-2B337E28CFD7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="4140" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능정리-수정필요" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="159">
   <si>
     <t>구분</t>
   </si>
@@ -610,6 +610,31 @@
   </si>
   <si>
     <t>관심사 및 카테고리명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모임생성페이지, 
+회원가입 시 관심사 선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int 값이 아닌 String으로 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">운영자 모든 기능 권한 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 후 이용가능한 기능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -630,36 +655,8 @@
 요리/제조, 
 반려동물, 
 가족/결혼, 
-자유주제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모임생성페이지, 
-회원가입 시 관심사 선택</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int 값이 아닌 String으로 처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">운영자 모든 기능 권한 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 후 이용가능한 기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>main1, main2를 제외하고 전부 회원가입 후 이용가능</t>
+자유주제,
+IT/코딩</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1110,51 +1107,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1168,6 +1120,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1490,18 +1487,18 @@
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="41.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="64.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.59765625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="64.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.58203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="43" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="4"/>
+    <col min="7" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1521,9 +1518,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="29"/>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="59" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1537,9 +1534,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="62.4" x14ac:dyDescent="0.35">
-      <c r="A3" s="44"/>
-      <c r="B3" s="52"/>
+    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.45">
+      <c r="A3" s="48"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
@@ -1551,9 +1548,9 @@
       </c>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="44"/>
-      <c r="B4" s="52"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="48"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1563,9 +1560,9 @@
       <c r="E4" s="16"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="44"/>
-      <c r="B5" s="52"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="48"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
@@ -1577,7 +1574,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="30"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
@@ -1585,11 +1582,11 @@
       <c r="E6" s="9"/>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.45">
+      <c r="A7" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="61" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -1601,9 +1598,9 @@
       <c r="E7" s="16"/>
       <c r="F7" s="23"/>
     </row>
-    <row r="8" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A8" s="44"/>
-      <c r="B8" s="53"/>
+    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.45">
+      <c r="A8" s="48"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
@@ -1617,9 +1614,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="44"/>
-      <c r="B9" s="53"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="48"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="11" t="s">
         <v>21</v>
       </c>
@@ -1629,9 +1626,9 @@
       <c r="E9" s="16"/>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="44"/>
-      <c r="B10" s="53"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="48"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
@@ -1641,9 +1638,9 @@
       <c r="E10" s="16"/>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="49"/>
+      <c r="B11" s="59" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -1655,9 +1652,9 @@
       <c r="E11" s="16"/>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="50"/>
-      <c r="B12" s="54"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="49"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
@@ -1667,9 +1664,9 @@
       <c r="E12" s="16"/>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="50"/>
-      <c r="B13" s="54"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="49"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="11" t="s">
         <v>30</v>
       </c>
@@ -1679,9 +1676,9 @@
       <c r="E13" s="16"/>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="50"/>
-      <c r="B14" s="54"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="49"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="11" t="s">
         <v>32</v>
       </c>
@@ -1691,9 +1688,9 @@
       <c r="E14" s="16"/>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="50"/>
-      <c r="B15" s="54"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="49"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="11" t="s">
         <v>34</v>
       </c>
@@ -1703,9 +1700,9 @@
       <c r="E15" s="16"/>
       <c r="F15" s="23"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="50"/>
-      <c r="B16" s="54"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="49"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="6" t="s">
         <v>36</v>
       </c>
@@ -1715,7 +1712,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.45">
       <c r="A17" s="16"/>
       <c r="B17" s="12" t="s">
         <v>38</v>
@@ -1729,11 +1726,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="52.2" x14ac:dyDescent="0.35">
-      <c r="A18" s="44" t="s">
+    <row r="18" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+      <c r="A18" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="52" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1745,9 +1742,9 @@
       <c r="E18" s="9"/>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A19" s="44"/>
-      <c r="B19" s="42"/>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.45">
+      <c r="A19" s="48"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
@@ -1759,9 +1756,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="44"/>
-      <c r="B20" s="42"/>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.45">
+      <c r="A20" s="48"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1773,9 +1770,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.35">
-      <c r="A21" s="44"/>
-      <c r="B21" s="42"/>
+    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+      <c r="A21" s="48"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="17" t="s">
         <v>45</v>
       </c>
@@ -1785,8 +1782,8 @@
       <c r="E21" s="9"/>
       <c r="F21" s="25"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="44" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="48" t="s">
         <v>130</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1801,8 +1798,8 @@
       <c r="E22" s="9"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A23" s="44"/>
+    <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.45">
+      <c r="A23" s="48"/>
       <c r="B23" s="8" t="s">
         <v>49</v>
       </c>
@@ -1815,8 +1812,8 @@
       <c r="E23" s="9"/>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="44"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="48"/>
       <c r="B24" s="8" t="s">
         <v>50</v>
       </c>
@@ -1829,8 +1826,8 @@
       <c r="E24" s="9"/>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="44"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="48"/>
       <c r="B25" s="8" t="s">
         <v>51</v>
       </c>
@@ -1841,9 +1838,9 @@
       <c r="E25" s="9"/>
       <c r="F25" s="22"/>
     </row>
-    <row r="26" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A26" s="44"/>
-      <c r="B26" s="50" t="s">
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.45">
+      <c r="A26" s="48"/>
+      <c r="B26" s="49" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -1855,9 +1852,9 @@
       <c r="E26" s="9"/>
       <c r="F26" s="22"/>
     </row>
-    <row r="27" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A27" s="44"/>
-      <c r="B27" s="50"/>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.45">
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="1"/>
       <c r="D27" s="13" t="s">
         <v>65</v>
@@ -1865,9 +1862,9 @@
       <c r="E27" s="9"/>
       <c r="F27" s="22"/>
     </row>
-    <row r="28" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A28" s="44"/>
-      <c r="B28" s="50"/>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.45">
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="8" t="s">
         <v>58</v>
       </c>
@@ -1877,8 +1874,8 @@
       <c r="E28" s="9"/>
       <c r="F28" s="22"/>
     </row>
-    <row r="29" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A29" s="44"/>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.45">
+      <c r="A29" s="48"/>
       <c r="B29" s="8" t="s">
         <v>53</v>
       </c>
@@ -1891,122 +1888,122 @@
       <c r="E29" s="9"/>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A30" s="44" t="s">
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.45">
+      <c r="A30" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="51" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="49" t="s">
+      <c r="E30" s="51" t="s">
         <v>90</v>
       </c>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A31" s="44"/>
-      <c r="B31" s="49"/>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.45">
+      <c r="A31" s="48"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A32" s="44"/>
-      <c r="B32" s="49"/>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.45">
+      <c r="A32" s="48"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A33" s="44"/>
-      <c r="B33" s="49" t="s">
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.45">
+      <c r="A33" s="48"/>
+      <c r="B33" s="51" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="51" t="s">
         <v>91</v>
       </c>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A34" s="44"/>
-      <c r="B34" s="49"/>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.45">
+      <c r="A34" s="48"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A35" s="44"/>
-      <c r="B35" s="49"/>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.45">
+      <c r="A35" s="48"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A36" s="44"/>
-      <c r="B36" s="49" t="s">
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.45">
+      <c r="A36" s="48"/>
+      <c r="B36" s="51" t="s">
         <v>77</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="49"/>
+      <c r="E36" s="51"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A37" s="44"/>
-      <c r="B37" s="49"/>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.45">
+      <c r="A37" s="48"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="55"/>
-      <c r="B38" s="49"/>
+    <row r="38" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="50"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:6" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="45" t="s">
+    <row r="39" spans="1:6" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="57" t="s">
         <v>95</v>
       </c>
       <c r="D39" s="28" t="s">
@@ -2019,11 +2016,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="46"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49" t="s">
+    <row r="40" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="56"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51" t="s">
         <v>105</v>
       </c>
       <c r="E40" s="27" t="s">
@@ -2033,22 +2030,22 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="46"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+    <row r="41" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="56"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
       <c r="E41" s="27" t="s">
         <v>108</v>
       </c>
       <c r="F41" s="27"/>
     </row>
-    <row r="42" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="46"/>
-      <c r="B42" s="49" t="s">
+    <row r="42" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="56"/>
+      <c r="B42" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="51" t="s">
         <v>96</v>
       </c>
       <c r="D42" s="27" t="s">
@@ -2061,10 +2058,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="46"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
+    <row r="43" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="56"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
       <c r="D43" s="27" t="s">
         <v>112</v>
       </c>
@@ -2075,8 +2072,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A44" s="46"/>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.45">
+      <c r="A44" s="56"/>
       <c r="B44" s="27" t="s">
         <v>97</v>
       </c>
@@ -2093,8 +2090,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A45" s="47"/>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.45">
+      <c r="A45" s="57"/>
       <c r="B45" s="27" t="s">
         <v>98</v>
       </c>
@@ -2111,14 +2108,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="48" t="s">
+    <row r="46" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="58" t="s">
         <v>99</v>
       </c>
       <c r="D46" s="27" t="s">
@@ -2129,10 +2126,10 @@
       </c>
       <c r="F46" s="27"/>
     </row>
-    <row r="47" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="46"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
+    <row r="47" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="56"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
       <c r="D47" s="27" t="s">
         <v>122</v>
       </c>
@@ -2141,8 +2138,8 @@
       </c>
       <c r="F47" s="27"/>
     </row>
-    <row r="48" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A48" s="46"/>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.45">
+      <c r="A48" s="56"/>
       <c r="B48" s="27" t="s">
         <v>100</v>
       </c>
@@ -2159,8 +2156,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A49" s="47"/>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.45">
+      <c r="A49" s="57"/>
       <c r="B49" s="27" t="s">
         <v>101</v>
       </c>
@@ -2177,8 +2174,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="41" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="52" t="s">
         <v>137</v>
       </c>
       <c r="B51" s="32" t="s">
@@ -2189,8 +2186,8 @@
       </c>
       <c r="D51" s="34"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="42"/>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="53"/>
       <c r="B52" s="35" t="s">
         <v>134</v>
       </c>
@@ -2199,8 +2196,8 @@
       </c>
       <c r="D52" s="37"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="42"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="53"/>
       <c r="B53" s="35" t="s">
         <v>135</v>
       </c>
@@ -2209,14 +2206,14 @@
       </c>
       <c r="D53" s="37"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="42"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="53"/>
       <c r="B54" s="35"/>
       <c r="C54" s="36"/>
       <c r="D54" s="37"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="43"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="54"/>
       <c r="B55" s="38" t="s">
         <v>136</v>
       </c>
@@ -2225,34 +2222,20 @@
       </c>
       <c r="D55" s="40"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E5" xr:uid="{85309E91-2D87-430F-89B8-FD2C51B1343F}"/>
   <mergeCells count="30">
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
     <mergeCell ref="A51:A55"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A39:A45"/>
@@ -2269,6 +2252,20 @@
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B16"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2285,36 +2282,36 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.69921875" customWidth="1"/>
-    <col min="3" max="3" width="40.796875" customWidth="1"/>
-    <col min="4" max="4" width="19.69921875" customWidth="1"/>
-    <col min="5" max="5" width="29.8984375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
+    <row r="1" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="44" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="31">
         <v>1</v>
       </c>
@@ -2327,63 +2324,61 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="31">
         <v>2</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="45" t="s">
         <v>150</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
     </row>
-    <row r="5" spans="1:5" ht="313.2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="323" x14ac:dyDescent="0.45">
       <c r="A5" s="31">
         <v>3</v>
       </c>
       <c r="B5" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="E5" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="31">
         <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="31">
         <v>5</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="56"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="56"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="41"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="41"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:E2" xr:uid="{CD5C7797-A696-4484-A101-4433807FD674}"/>
